--- a/factor_build/feature_level2.xlsx
+++ b/factor_build/feature_level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C480DE6-E252-4AD8-8C6C-FEBD73B42BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574BB05-1DDB-4F2E-887F-90D16946FBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11628" yWindow="3432" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>

--- a/factor_build/feature_level2.xlsx
+++ b/factor_build/feature_level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574BB05-1DDB-4F2E-887F-90D16946FBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E8F261-2C3B-4F95-94A3-CC11E2957DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11556" yWindow="3432" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
